--- a/timer/figs/tim1_reg.xlsx
+++ b/timer/figs/tim1_reg.xlsx
@@ -25,30 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="2">
   <si>
     <t>Timer control</t>
   </si>
   <si>
-    <t>TIM1-&gt;RCR</t>
-  </si>
-  <si>
-    <t>capture/compare register 2</t>
-  </si>
-  <si>
-    <t>TIM1-&gt;CCR2</t>
-  </si>
-  <si>
-    <t>capture/compare register 3</t>
-  </si>
-  <si>
-    <t>TIM1-&gt;CCR3</t>
-  </si>
-  <si>
-    <t>TIM1-&gt;CCR4</t>
-  </si>
-  <si>
-    <t>TIM1-&gt;DCR</t>
+    <t>Prescalar</t>
   </si>
 </sst>
 </file>
@@ -196,7 +178,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -265,7 +247,11 @@
           <t>TIM1-&gt;SMCR</t>
         </is>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Clock Source</t>
+        </is>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="12">
       <c r="A5" s="5" t="inlineStr">
@@ -363,6 +349,9 @@
           <t>TIM1-&gt;PSC</t>
         </is>
       </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="inlineStr">
@@ -382,8 +371,10 @@
           <t>repetition counter register</t>
         </is>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>TIM1-&gt;RCR</t>
+        </is>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -399,19 +390,27 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>capture/compare register 2</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>TIM1-&gt;CCR2</t>
+        </is>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>capture/compare register 3</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>TIM1-&gt;CCR3</t>
+        </is>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -420,8 +419,10 @@
           <t>capture/compare register 4</t>
         </is>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>TIM1-&gt;CCR4</t>
+        </is>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -442,8 +443,10 @@
           <t>DMA control register</t>
         </is>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TIM1-&gt;DCR</t>
+        </is>
       </c>
     </row>
     <row r="21" spans="1:3">
